--- a/Payments Learning.xlsx
+++ b/Payments Learning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishabh.a.garg\Documents\Payments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishabh.a.garg\Documents\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -344,12 +344,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -369,6 +380,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1196,11 @@
       </c>
       <c r="G21" s="6" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
